--- a/data/login_data.xlsx
+++ b/data/login_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420"/>
+    <workbookView windowWidth="20625" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="1" r:id="rId1"/>
@@ -14,33 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>序号</t>
   </si>
   <si>
+    <t>用例标题</t>
+  </si>
+  <si>
     <t>手机号</t>
   </si>
   <si>
-    <t>密码</t>
+    <t>验证码</t>
   </si>
   <si>
     <t>预期结果</t>
   </si>
   <si>
+    <t>手机号、验证码正确</t>
+  </si>
+  <si>
     <t>当前机构：砼联数字科技有限公司</t>
   </si>
   <si>
+    <t>手机号12位</t>
+  </si>
+  <si>
     <t>137308700861</t>
   </si>
   <si>
     <t>手机号码格式不正确</t>
   </si>
   <si>
+    <t>手机号10位</t>
+  </si>
+  <si>
+    <t>手机号为空</t>
+  </si>
+  <si>
     <t>请输入手机号码</t>
   </si>
   <si>
+    <t>验证码为空</t>
+  </si>
+  <si>
     <t>请输入短信验证码</t>
+  </si>
+  <si>
+    <t>验证码错误</t>
   </si>
   <si>
     <t>验证码错误,请检查</t>
@@ -988,19 +1009,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="12.625"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="12.625"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,83 +1035,104 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>13730870086</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>230516</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
         <v>230516</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
         <v>1373087008</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>230516</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
         <v>230516</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
         <v>13730870086</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
         <v>13730870086</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>230515</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
+      <c r="E7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
